--- a/rhla_analysis/rhla1_6_zipf_result/k4.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.488582897120858</v>
+        <v>1.488582897120865</v>
       </c>
       <c r="B2" t="n">
         <v>85.60785870442152</v>
@@ -466,12 +466,12 @@
         <v>0.08621860149355058</v>
       </c>
       <c r="D2" t="n">
-        <v>57.50963474724848</v>
+        <v>57.50963474724822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2694817977856926</v>
+        <v>0.2694817977856919</v>
       </c>
       <c r="B3" t="n">
         <v>7.62810746341759</v>
@@ -480,26 +480,26 @@
         <v>0.09063136456211812</v>
       </c>
       <c r="D3" t="n">
-        <v>28.30657775811596</v>
+        <v>28.30657775811604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.09565713218570214</v>
+        <v>0.09565713218570222</v>
       </c>
       <c r="B4" t="n">
-        <v>4.258838727318021</v>
+        <v>4.25883872731802</v>
       </c>
       <c r="C4" t="n">
         <v>0.1079429735234216</v>
       </c>
       <c r="D4" t="n">
-        <v>44.52191519865143</v>
+        <v>44.52191519865138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0926784136240312</v>
+        <v>0.09267841362403133</v>
       </c>
       <c r="B5" t="n">
         <v>2.461872239103639</v>
@@ -508,12 +508,12 @@
         <v>0.08010862186014936</v>
       </c>
       <c r="D5" t="n">
-        <v>26.56359925506196</v>
+        <v>26.56359925506192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7241513266132417</v>
+        <v>0.7241513266132412</v>
       </c>
       <c r="B6" t="n">
         <v>45.78364499656526</v>
@@ -522,12 +522,12 @@
         <v>0.0913102511880516</v>
       </c>
       <c r="D6" t="n">
-        <v>63.22386401014993</v>
+        <v>63.22386401014998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2032732712391349</v>
+        <v>0.2032732712391363</v>
       </c>
       <c r="B7" t="n">
         <v>5.843634270764676</v>
@@ -536,12 +536,12 @@
         <v>0.09708078750848609</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7476766381651</v>
+        <v>28.74767663816491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5688338051816599</v>
+        <v>0.5688338051816573</v>
       </c>
       <c r="B8" t="n">
         <v>52.09218845539655</v>
@@ -550,12 +550,12 @@
         <v>0.09979633401221996</v>
       </c>
       <c r="D8" t="n">
-        <v>91.57716714596567</v>
+        <v>91.5771671459661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5298428762755469</v>
+        <v>0.5298428762755513</v>
       </c>
       <c r="B9" t="n">
         <v>38.45982619190163</v>
@@ -564,26 +564,26 @@
         <v>0.09572301425661914</v>
       </c>
       <c r="D9" t="n">
-        <v>72.58722899560216</v>
+        <v>72.58722899560156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4055573744134408</v>
+        <v>0.4055573744134381</v>
       </c>
       <c r="B10" t="n">
-        <v>6.543797813746447</v>
+        <v>6.543797813746446</v>
       </c>
       <c r="C10" t="n">
         <v>0.09945689069925323</v>
       </c>
       <c r="D10" t="n">
-        <v>16.13531950494247</v>
+        <v>16.13531950494257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1453728688776091</v>
+        <v>0.1453728688776097</v>
       </c>
       <c r="B11" t="n">
         <v>9.552350258393064</v>
@@ -592,7 +592,7 @@
         <v>0.09504412763068568</v>
       </c>
       <c r="D11" t="n">
-        <v>65.70930554060459</v>
+        <v>65.7093055406043</v>
       </c>
     </row>
   </sheetData>
